--- a/Week_1/Expense Tracker.xlsx
+++ b/Week_1/Expense Tracker.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sid\Dropbox\CodingTemple\CT_Coursework\Week_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5136D9-AAD4-4744-991E-7939B0F48528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50227A7A-736D-45B8-8A33-B452703052A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA837D69-30CE-4656-8275-866B2F5C4218}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -287,7 +287,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Expense Tracker.xlsx]PT - Category Totals!PivotTable4</c:name>
+    <c:name>[Expense Tracker_PC.xlsx]PT - Category Totals!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -298,12 +298,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -338,12 +335,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -524,9 +518,32 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -553,10 +570,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -580,9 +594,32 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -609,10 +646,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -636,9 +670,32 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -665,10 +722,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -692,9 +746,32 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -721,10 +798,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -748,9 +822,32 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -777,10 +874,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -804,9 +898,32 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -833,10 +950,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -860,9 +974,32 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -889,10 +1026,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -916,9 +1050,32 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -945,10 +1102,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -972,9 +1126,32 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1001,10 +1178,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1028,9 +1202,32 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1057,10 +1254,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1084,9 +1278,32 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1113,10 +1330,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1159,9 +1373,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,9 +1464,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,9 +1555,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,9 +1646,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,9 +1743,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,9 +1837,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,11 +1934,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,11 +2034,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1710,11 +2125,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1783,11 +2225,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1856,11 +2322,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1936,7 +2426,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1952,10 +2442,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1983,7 +2470,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2011,10 +2498,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2053,10 +2537,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2084,7 +2565,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2148,7 +2629,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2161,12 +2642,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly</a:t>
+              <a:rPr lang="en-US" sz="1600" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Monthly Average </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Average Per Flex Category</a:t>
+              <a:rPr lang="en-US" sz="1600" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Per Flex Category</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2184,7 +2682,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2213,14 +2711,22 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2233,14 +2739,22 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2253,14 +2767,22 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2273,14 +2795,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2293,14 +2825,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2313,14 +2855,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2333,16 +2885,25 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2355,16 +2916,25 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2377,16 +2947,25 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2399,16 +2978,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2417,6 +3004,230 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1461464872161138E-2"/>
+                  <c:y val="3.4162217467824059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.15563657331568531"/>
+                      <c:h val="0.10865150209827421"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3182407904910428E-2"/>
+                  <c:y val="-3.887939123270828E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14281232390213217"/>
+                      <c:h val="8.6954703638484024E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.4883359253499222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0498687664041995E-2"/>
+                  <c:y val="-1.5552099533437128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.799650043744532E-2"/>
+                  <c:y val="1.2441679626749611E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8993875765529306E-2"/>
+                  <c:y val="2.4883359253499222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6657871668061221E-2"/>
+                  <c:y val="-5.8759328317320884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-640F-44D0-B6A6-E88D560B1A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2431,11 +3242,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2446,11 +3256,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2555,6 +3366,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2574,7 +3386,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2662,7 +3474,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Expense Tracker.xlsx]PT - Monthly overview!PivotTable2</c:name>
+    <c:name>[Expense Tracker_PC.xlsx]PT - Monthly overview!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2673,12 +3485,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2705,12 +3514,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2725,12 +3531,84 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2755,10 +3633,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2780,13 +3655,38 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2811,10 +3711,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2836,13 +3733,38 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2867,178 +3789,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3081,11 +3832,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3152,11 +3930,36 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3223,11 +4026,36 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3287,8 +4115,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="2014819472"/>
         <c:axId val="1835113536"/>
       </c:barChart>
@@ -3307,7 +4135,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3323,10 +4151,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3354,7 +4179,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3382,10 +4207,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3424,10 +4246,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3455,7 +4274,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3519,25 +4338,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Balance x</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Transactions</a:t>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Balance x Transactions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3555,16 +4376,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3859,6 +4679,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -4989,7 +5812,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="247"/>
         <c:axId val="2078142816"/>
         <c:axId val="1900208352"/>
       </c:barChart>
@@ -5003,7 +5826,7 @@
             <c:v>Average of Balance</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5550,15 +6373,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -5572,9 +6409,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5605,7 +6442,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -5633,7 +6470,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5651,7 +6488,17 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5659,7 +6506,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5675,7 +6522,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5702,11 +6549,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5735,13 +6582,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5775,13 +6619,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5889,7 +6730,475 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5900,7 +7209,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5912,17 +7221,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5946,19 +7244,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5990,47 +7285,7 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6038,464 +7293,24 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
     </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6503,24 +7318,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -6546,10 +7347,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6557,14 +7356,17 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6829,7 +7631,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6845,7 +7647,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6913,33 +7715,27 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6954,7 +7750,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6962,7 +7758,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6970,14 +7766,489 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -7014,35 +8285,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7054,30 +8335,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7093,16 +8378,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7110,7 +8394,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -7122,17 +8406,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7141,12 +8426,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -7160,14 +8445,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7179,13 +8464,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7193,12 +8485,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7212,12 +8504,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -7231,14 +8523,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7250,12 +8542,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -7269,35 +8561,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -7309,12 +8619,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -7327,13 +8637,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7342,14 +8652,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7358,7 +8667,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -7376,13 +8685,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7391,7 +8701,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -7403,516 +8713,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -7958,16 +8772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607034</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>135177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>160055</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>20877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8036,8 +8850,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1595438</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -9833,7 +10647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8082832-EC6A-4AA0-9FFA-66CB92DA7036}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8082832-EC6A-4AA0-9FFA-66CB92DA7036}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:F25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" numFmtId="14" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -10448,7 +11262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD685512-4EA4-4F17-AE11-33AD289340C4}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD685512-4EA4-4F17-AE11-33AD289340C4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:N10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" subtotalTop="0" showAll="0">
@@ -10844,7 +11658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F13CAA1-E3AD-4060-9637-FDE25FC85E57}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F13CAA1-E3AD-4060-9637-FDE25FC85E57}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -11473,8 +12287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8CADFC-831D-4F1B-AE47-82539F931C95}">
   <dimension ref="P6:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
